--- a/Målingsark.xlsx
+++ b/Målingsark.xlsx
@@ -73,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -85,8 +85,61 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -95,25 +148,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -122,7 +173,22 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -131,32 +197,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -168,7 +216,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -182,18 +230,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -203,60 +240,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,291 +703,1356 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="19">
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <f>Punkter!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7">
+        <f>Punkter!$A$3</f>
+        <v>2</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7">
+        <f>Punkter!$A$4</f>
+        <v>3</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="7">
+        <f>Punkter!$A$5</f>
+        <v>4</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
+        <f>Punkter!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <f>Punkter!$A$3</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="10">
+        <f>Punkter!$A$4</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="6">
+        <f>Punkter!$A$5</f>
+        <v>4</v>
+      </c>
+      <c r="G2" s="10">
+        <f>Punkter!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <f>Punkter!$A$3</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <f>Punkter!$A$4</f>
+        <v>3</v>
+      </c>
+      <c r="J2" s="6">
+        <f>Punkter!$A$5</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="10">
+        <f>Punkter!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="10">
+        <f>Punkter!$A$3</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="10">
+        <f>Punkter!$A$4</f>
+        <v>3</v>
+      </c>
+      <c r="N2" s="6">
+        <f>Punkter!$A$5</f>
+        <v>4</v>
+      </c>
+      <c r="O2" s="10">
+        <f>Punkter!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="10">
+        <f>Punkter!$A$3</f>
+        <v>2</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>Punkter!$A$4</f>
+        <v>3</v>
+      </c>
+      <c r="R2" s="6">
+        <f>Punkter!$A$5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="B3" s="12"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="B13" s="12"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <f>Punkter!$C$4</f>
         <v>3</v>
       </c>
-      <c r="F1" s="2">
+      <c r="B23" s="12"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="18"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="18"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="18"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="18"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="18"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="18"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="18"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <f>Punkter!$C$5</f>
         <v>4</v>
       </c>
-      <c r="G1" s="2">
+      <c r="B33" s="12"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="18"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="18"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="18"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="18"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="18"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="18"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="18"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="18"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="18"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="18"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <f>Punkter!$C$6</f>
         <v>5</v>
       </c>
-      <c r="H1" s="3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="18"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="18"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="18"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="18"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="18"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="18"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="18"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="18"/>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="6"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
         <f>Punkter!$C$7</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <f>Punkter!$A2</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="16">
-        <f>Punkter!A2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17">
-        <f>Punkter!A3</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17">
-        <f>Punkter!A4</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18">
-        <f>Punkter!A5</f>
-        <v>4</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <f>Punkter!$A3</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="17">
-        <f>Punkter!A2</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17">
-        <f>Punkter!A3</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17">
-        <f>Punkter!A4</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18">
-        <f>Punkter!A5</f>
-        <v>4</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <f>Punkter!$A4</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="17">
-        <f>Punkter!A2</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17">
-        <f>Punkter!A3</f>
-        <v>2</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17">
-        <f>Punkter!A4</f>
-        <v>3</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18">
-        <f>Punkter!A5</f>
-        <v>4</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <f>Punkter!$A5</f>
-        <v>4</v>
-      </c>
-      <c r="B15" s="17">
-        <f>Punkter!A2</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17">
-        <f>Punkter!A3</f>
-        <v>2</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17">
-        <f>Punkter!A4</f>
-        <v>3</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18">
-        <f>Punkter!A5</f>
-        <v>4</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="18"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="18"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="18"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="18"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="18"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="18"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="18"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="18"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="18"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A33:B42"/>
+    <mergeCell ref="A43:B52"/>
+    <mergeCell ref="A53:B62"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="A13:B22"/>
+    <mergeCell ref="A23:B32"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Målingsark.xlsx
+++ b/Målingsark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Punkter" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Højde punkter</t>
   </si>
@@ -72,6 +72,9 @@
   <si>
     <t>Place</t>
   </si>
+  <si>
+    <t>Total Points</t>
+  </si>
 </sst>
 </file>
 
@@ -487,63 +490,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +888,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -915,6 +918,15 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <f>(COUNT(A2:A10)*COUNT(A2:A10)/2 +COUNT(A2:A10)/2)*COUNT(C2:C10)</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +939,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O3" sqref="O3:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,37 +950,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="40">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="40">
         <f>Punkter!$A$3</f>
-        <v>0.06</v>
-      </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38">
+        <v>0.08</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="40">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="46">
+      <c r="K1" s="42"/>
+      <c r="L1" s="29">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -978,7 +990,7 @@
       </c>
       <c r="D2" s="7">
         <f>Punkter!$A$3</f>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="7">
         <f>Punkter!$A$4</f>
@@ -990,7 +1002,7 @@
       </c>
       <c r="G2" s="18">
         <f>Punkter!$A$3</f>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H2" s="7">
         <f>Punkter!$A$4</f>
@@ -1012,17 +1024,17 @@
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="29"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="34">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="11"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -1038,8 +1050,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="12"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -1055,8 +1067,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="12"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -1072,8 +1084,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="12"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -1089,8 +1101,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="12"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1107,8 +1119,8 @@
       <c r="O7" s="21"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="12"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1125,8 +1137,8 @@
       <c r="O8" s="21"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="12"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1143,8 +1155,8 @@
       <c r="O9" s="21"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="12"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1161,8 +1173,8 @@
       <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="12"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1175,8 +1187,8 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="13"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -1189,11 +1201,11 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="34">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="12"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1206,8 +1218,8 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="12"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1220,8 +1232,8 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="12"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1234,8 +1246,8 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="12"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1248,8 +1260,8 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="12"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -1262,8 +1274,8 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="12"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -1276,8 +1288,8 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -1290,8 +1302,8 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="12"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1304,8 +1316,8 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="12"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -1318,8 +1330,8 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="12"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1332,11 +1344,11 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="34">
         <f>Punkter!$C$4</f>
         <v>3.9</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1349,8 +1361,8 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1363,8 +1375,8 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -1377,8 +1389,8 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="12"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -1391,8 +1403,8 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="12"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -1405,8 +1417,8 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="12"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -1419,8 +1431,8 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="12"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -1433,8 +1445,8 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="12"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -1447,8 +1459,8 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="12"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -1461,8 +1473,8 @@
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="13"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -1475,11 +1487,11 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
+      <c r="A33" s="34">
         <f>Punkter!$C$5</f>
         <v>7.9</v>
       </c>
-      <c r="B33" s="31"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="12"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -1492,8 +1504,8 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="12"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -1506,8 +1518,8 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="12"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -1520,8 +1532,8 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="12"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -1534,8 +1546,8 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="12"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -1548,8 +1560,8 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="12"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -1562,8 +1574,8 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="12"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -1576,8 +1588,8 @@
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -1590,8 +1602,8 @@
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -1604,8 +1616,8 @@
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="12"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -1618,11 +1630,11 @@
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
+      <c r="A43" s="34">
         <f>Punkter!$C$6</f>
         <v>15.2</v>
       </c>
-      <c r="B43" s="31"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="11"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -1635,8 +1647,8 @@
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="12"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -1649,8 +1661,8 @@
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="12"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -1663,8 +1675,8 @@
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="12"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -1677,8 +1689,8 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="12"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -1691,8 +1703,8 @@
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="12"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -1705,8 +1717,8 @@
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="12"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -1719,8 +1731,8 @@
       <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="12"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -1733,8 +1745,8 @@
       <c r="L50" s="9"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="12"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -1747,8 +1759,8 @@
       <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="13"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -1761,11 +1773,11 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="30">
+      <c r="A53" s="34">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B53" s="31"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="12"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -1778,8 +1790,8 @@
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="12"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -1792,8 +1804,8 @@
       <c r="L54" s="9"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="12"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -1806,8 +1818,8 @@
       <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="12"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -1820,8 +1832,8 @@
       <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="12"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -1834,8 +1846,8 @@
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="12"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -1848,8 +1860,8 @@
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="12"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -1862,8 +1874,8 @@
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="12"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -1876,8 +1888,8 @@
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="12"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -1890,8 +1902,8 @@
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="34"/>
-      <c r="B62" s="35"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="13"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
@@ -1905,6 +1917,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="A33:B42"/>
     <mergeCell ref="A43:B52"/>
@@ -1912,10 +1928,6 @@
     <mergeCell ref="A3:B12"/>
     <mergeCell ref="A13:B22"/>
     <mergeCell ref="A23:B32"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1925,38 +1937,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="40">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="40">
         <f>Punkter!$A$3</f>
-        <v>0.06</v>
-      </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38">
+        <v>0.08</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="40">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="46">
+      <c r="K1" s="42"/>
+      <c r="L1" s="29">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
@@ -1970,7 +1982,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1980,7 +1992,7 @@
       </c>
       <c r="D2" s="7">
         <f>Punkter!$A$3</f>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="7">
         <f>Punkter!$A$4</f>
@@ -1992,7 +2004,7 @@
       </c>
       <c r="G2" s="18">
         <f>Punkter!$A$3</f>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H2" s="7">
         <f>Punkter!$A$4</f>
@@ -2024,10 +2036,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="22">
         <f>SUM(Meas1!C$3:'Meas1'!C$12)/10</f>
         <v>0</v>
@@ -2064,7 +2076,7 @@
         <f>SUM(Meas1!K$3:'Meas1'!K$12)/10</f>
         <v>0</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="30">
         <f>SUM(Meas1!L$3:'Meas1'!L$12)/10</f>
         <v>0</v>
       </c>
@@ -2078,10 +2090,10 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="24">
         <f>SUM(Meas1!C$13:'Meas1'!C$22)/10</f>
         <v>0</v>
@@ -2118,7 +2130,7 @@
         <f>SUM(Meas1!K$13:'Meas1'!K$22)/10</f>
         <v>0</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="31">
         <f>SUM(Meas1!L$13:'Meas1'!L$22)/10</f>
         <v>0</v>
       </c>
@@ -2132,10 +2144,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="24">
         <f>SUM(Meas1!C$23:'Meas1'!C$32)/10</f>
         <v>0</v>
@@ -2172,7 +2184,7 @@
         <f>SUM(Meas1!K$23:'Meas1'!K$32)/10</f>
         <v>0</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="31">
         <f>SUM(Meas1!L$23:'Meas1'!L$32)/10</f>
         <v>0</v>
       </c>
@@ -2186,10 +2198,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="24">
         <f>SUM(Meas1!C$33:'Meas1'!C$42)/10</f>
         <v>0</v>
@@ -2226,7 +2238,7 @@
         <f>SUM(Meas1!K$33:'Meas1'!K$42)/10</f>
         <v>0</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="31">
         <f>SUM(Meas1!L$33:'Meas1'!L$42)/10</f>
         <v>0</v>
       </c>
@@ -2240,10 +2252,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
+      <c r="A7" s="46">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="24">
         <f>SUM(Meas1!C$43:'Meas1'!C$52)/10</f>
         <v>0</v>
@@ -2280,7 +2292,7 @@
         <f>SUM(Meas1!K$43:'Meas1'!K$52)/10</f>
         <v>0</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="31">
         <f>SUM(Meas1!L$43:'Meas1'!L$52)/10</f>
         <v>0</v>
       </c>
@@ -2294,10 +2306,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
+      <c r="A8" s="48">
         <v>6</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="20">
         <f>SUM(Meas1!C$53:'Meas1'!C$62)/10</f>
         <v>0</v>
@@ -2334,7 +2346,7 @@
         <f>SUM(Meas1!K$53:'Meas1'!K$62)/10</f>
         <v>0</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="32">
         <f>SUM(Meas1!L$53:'Meas1'!L$62)/10</f>
         <v>0</v>
       </c>
@@ -2349,16 +2361,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Målingsark.xlsx
+++ b/Målingsark.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Punkter" sheetId="1" r:id="rId1"/>
     <sheet name="Meas1" sheetId="2" r:id="rId2"/>
     <sheet name="Total" sheetId="3" r:id="rId3"/>
+    <sheet name="Friis" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Højde punkter</t>
   </si>
@@ -75,6 +76,27 @@
   <si>
     <t>Total Points</t>
   </si>
+  <si>
+    <t>Friis</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Gt</t>
+  </si>
+  <si>
+    <t>Gr</t>
+  </si>
+  <si>
+    <t>Lamda</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
+    <t>Two ray</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -417,12 +439,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,6 +562,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,36 +598,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,37 +1029,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40">
+      <c r="C1" s="34">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="40">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="34">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="40">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="34">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="42"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="29">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1024,17 +1103,17 @@
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="33"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="39">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="11"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -1050,8 +1129,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="12"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -1067,8 +1146,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="12"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -1084,8 +1163,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="12"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -1101,8 +1180,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="12"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1119,8 +1198,8 @@
       <c r="O7" s="21"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="12"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1137,8 +1216,8 @@
       <c r="O8" s="21"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="12"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1155,8 +1234,8 @@
       <c r="O9" s="21"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="12"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1173,8 +1252,8 @@
       <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="12"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1187,8 +1266,8 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="13"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -1201,11 +1280,11 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="39">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="12"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1218,8 +1297,8 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="12"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1232,8 +1311,8 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="12"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1246,8 +1325,8 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="12"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1260,8 +1339,8 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="12"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -1274,8 +1353,8 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="12"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -1288,8 +1367,8 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -1302,8 +1381,8 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="12"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1316,8 +1395,8 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="12"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -1330,8 +1409,8 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="12"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1344,11 +1423,11 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="39">
         <f>Punkter!$C$4</f>
         <v>3.9</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="11"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1361,8 +1440,8 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1375,8 +1454,8 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -1389,8 +1468,8 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="12"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -1403,8 +1482,8 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="12"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -1417,8 +1496,8 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="12"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -1431,8 +1510,8 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="12"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -1445,8 +1524,8 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="12"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -1459,8 +1538,8 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="12"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -1473,8 +1552,8 @@
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="13"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -1487,11 +1566,11 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="A33" s="39">
         <f>Punkter!$C$5</f>
         <v>7.9</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="12"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -1504,8 +1583,8 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="12"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -1518,8 +1597,8 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="12"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -1532,8 +1611,8 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="12"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -1546,8 +1625,8 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="12"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -1560,8 +1639,8 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="12"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -1574,8 +1653,8 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="12"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -1588,8 +1667,8 @@
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -1602,8 +1681,8 @@
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -1616,8 +1695,8 @@
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="12"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -1630,11 +1709,11 @@
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="A43" s="39">
         <f>Punkter!$C$6</f>
         <v>15.2</v>
       </c>
-      <c r="B43" s="35"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="11"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -1647,8 +1726,8 @@
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="12"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -1661,8 +1740,8 @@
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="12"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -1675,8 +1754,8 @@
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="12"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -1689,8 +1768,8 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="12"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -1703,8 +1782,8 @@
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="12"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -1717,8 +1796,8 @@
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="12"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -1731,8 +1810,8 @@
       <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="12"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -1745,8 +1824,8 @@
       <c r="L50" s="9"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="12"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -1759,8 +1838,8 @@
       <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="13"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -1773,11 +1852,11 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="34">
+      <c r="A53" s="39">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B53" s="35"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="12"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -1790,8 +1869,8 @@
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="12"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -1804,8 +1883,8 @@
       <c r="L54" s="9"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="12"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -1818,8 +1897,8 @@
       <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="12"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -1832,8 +1911,8 @@
       <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="12"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -1846,8 +1925,8 @@
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="12"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -1860,8 +1939,8 @@
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="12"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -1874,8 +1953,8 @@
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="37"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="12"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -1888,8 +1967,8 @@
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="12"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -1902,8 +1981,8 @@
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="38"/>
-      <c r="B62" s="39"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="13"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
@@ -1917,17 +1996,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="A33:B42"/>
     <mergeCell ref="A43:B52"/>
     <mergeCell ref="A53:B62"/>
     <mergeCell ref="A3:B12"/>
     <mergeCell ref="A13:B22"/>
     <mergeCell ref="A23:B32"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1938,36 +2017,36 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A3" sqref="A3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40">
+      <c r="C1" s="34">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="40">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="34">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="40">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="34">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="42"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="29">
         <f>Punkter!$A$5</f>
         <v>2</v>
@@ -1982,7 +2061,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2036,10 +2115,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44">
+      <c r="A3" s="45">
+        <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="22">
         <f>SUM(Meas1!C$3:'Meas1'!C$12)/10</f>
         <v>0</v>
@@ -2090,7 +2170,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
+      <c r="A4" s="45">
+        <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
       <c r="B4" s="47"/>
@@ -2144,10 +2225,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
-        <v>3</v>
-      </c>
-      <c r="B5" s="45"/>
+      <c r="A5" s="45">
+        <f>Punkter!$C$4</f>
+        <v>3.9</v>
+      </c>
+      <c r="B5" s="47"/>
       <c r="C5" s="24">
         <f>SUM(Meas1!C$23:'Meas1'!C$32)/10</f>
         <v>0</v>
@@ -2198,10 +2280,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
-        <v>4</v>
-      </c>
-      <c r="B6" s="45"/>
+      <c r="A6" s="45">
+        <f>Punkter!$C$5</f>
+        <v>7.9</v>
+      </c>
+      <c r="B6" s="47"/>
       <c r="C6" s="24">
         <f>SUM(Meas1!C$33:'Meas1'!C$42)/10</f>
         <v>0</v>
@@ -2252,8 +2335,9 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
-        <v>5</v>
+      <c r="A7" s="45">
+        <f>Punkter!$C$6</f>
+        <v>15.2</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="24">
@@ -2306,10 +2390,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48">
-        <v>6</v>
-      </c>
-      <c r="B8" s="49"/>
+      <c r="A8" s="45">
+        <f>Punkter!$C$7</f>
+        <v>30</v>
+      </c>
+      <c r="B8" s="47"/>
       <c r="C8" s="20">
         <f>SUM(Meas1!C$53:'Meas1'!C$62)/10</f>
         <v>0</v>
@@ -2361,18 +2446,831 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="34">
+        <f>Punkter!$A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="34">
+        <f>Punkter!$A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="34">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K1" s="36"/>
+      <c r="L1" s="29">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="48">
+        <f>Punkter!$A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="1">
+        <f>Punkter!$A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="F2" s="9">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="48">
+        <f>Punkter!$A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="H2" s="1">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="I2" s="9">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K2" s="9">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="9">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <f>Punkter!$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="49">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="D3" s="50">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="E3" s="50">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="F3" s="50">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="G3" s="49">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="H3" s="50">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="I3" s="51">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="J3" s="50">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="K3" s="51">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="L3" s="51">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45">
+        <f>Punkter!$C$3</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="52">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="D4" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="E4" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="F4" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="G4" s="52">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="H4" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="I4" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="J4" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="K4" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="L4" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45">
+        <f>Punkter!$C$4</f>
+        <v>3.9</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="55">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="D5" s="56">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="E5" s="56">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="F5" s="56">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="G5" s="55">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="H5" s="56">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="I5" s="57">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="J5" s="56">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="K5" s="57">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="L5" s="57">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="64">
+        <f>(3*10^8)/(2.4*10^9)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45">
+        <f>Punkter!$C$5</f>
+        <v>7.9</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="52">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="D6" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="E6" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="F6" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="G6" s="52">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="H6" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="I6" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="J6" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="K6" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="L6" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+        <v>-54.99853884608963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45">
+        <f>Punkter!$C$6</f>
+        <v>15.2</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="58">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="D7" s="59">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="E7" s="59">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="F7" s="59">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="G7" s="58">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="H7" s="59">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="I7" s="60">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="J7" s="59">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="K7" s="60">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="L7" s="60">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+        <v>-60.682868779176253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45">
+        <f>Punkter!$C$7</f>
+        <v>30</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="61">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="D8" s="62">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="E8" s="62">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="F8" s="62">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="G8" s="61">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="H8" s="62">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="I8" s="63">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="J8" s="62">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="K8" s="63">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="L8" s="63">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+        <v>-66.588422114674046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34">
+        <f>Punkter!$A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="34">
+        <f>Punkter!$A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="34">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="29">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="48">
+        <f>Punkter!$A$2</f>
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="1">
+        <f>Punkter!$A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="E12" s="1">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="F12" s="9">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="48">
+        <f>Punkter!$A$3</f>
+        <v>0.08</v>
+      </c>
+      <c r="H12" s="1">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="I12" s="9">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <f>Punkter!$A$4</f>
+        <v>0.34</v>
+      </c>
+      <c r="K12" s="9">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="L12" s="9">
+        <f>Punkter!$A$5</f>
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="45">
+        <f>Punkter!$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="49">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="D13" s="50">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="E13" s="50">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="F13" s="50">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="G13" s="49">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="H13" s="50">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="I13" s="51">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="J13" s="50">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="K13" s="51">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="L13" s="51">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+        <v>-37.045997020280801</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="45">
+        <f>Punkter!$C$3</f>
+        <v>2</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="52">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="D14" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="E14" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="F14" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="G14" s="52">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="H14" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="I14" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="J14" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="K14" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="L14" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+        <v>-43.066596933560426</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="45">
+        <f>Punkter!$C$4</f>
+        <v>3.9</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="55">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="D15" s="56">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="E15" s="56">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="F15" s="56">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="G15" s="55">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="H15" s="56">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="I15" s="57">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="J15" s="56">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="K15" s="57">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="L15" s="57">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+        <v>-48.867289160810785</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="64">
+        <f>(3*10^8)/(2.4*10^9)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="45">
+        <f>Punkter!$C$5</f>
+        <v>7.9</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="52">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="D16" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="E16" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="F16" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="G16" s="52">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="H16" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="I16" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="J16" s="53">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="K16" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+        <v>-54.99853884608963</v>
+      </c>
+      <c r="L16" s="54">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+        <v>-54.99853884608963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="45">
+        <f>Punkter!$C$6</f>
+        <v>15.2</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="58">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="D17" s="59">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="E17" s="59">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="F17" s="59">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="G17" s="58">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="H17" s="59">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="I17" s="60">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="J17" s="59">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="K17" s="60">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+        <v>-60.682868779176253</v>
+      </c>
+      <c r="L17" s="60">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+        <v>-60.682868779176253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45">
+        <f>Punkter!$C$7</f>
+        <v>30</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="61">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="D18" s="62">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="E18" s="62">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="F18" s="62">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="G18" s="61">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="H18" s="62">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="I18" s="63">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="J18" s="62">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="K18" s="63">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+        <v>-66.588422114674046</v>
+      </c>
+      <c r="L18" s="63">
+        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+        <v>-66.588422114674046</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Målingsark.xlsx
+++ b/Målingsark.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gotti\Documents\P7\P7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skole\7. semester\P7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Punkter" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Total" sheetId="3" r:id="rId3"/>
     <sheet name="Friis" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;kr.&quot;\ * #,##0.00_ ;_ &quot;kr.&quot;\ * \-#,##0.00_ ;_ &quot;kr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -129,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -478,6 +478,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -546,9 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -565,47 +577,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,6 +599,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,9 +962,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -965,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.08</v>
       </c>
@@ -973,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.34</v>
       </c>
@@ -981,7 +996,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -989,17 +1004,17 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>15.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1015,51 +1030,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="7.33203125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34">
+      <c r="C1" s="57">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="34">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="57">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="34">
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="57">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="29">
+      <c r="K1" s="59"/>
+      <c r="L1" s="28">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+    <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1103,17 +1119,13 @@
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
-      <c r="N2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+    </row>
+    <row r="3" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="11"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -1121,16 +1133,13 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="3"/>
-      <c r="N3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="12"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -1138,16 +1147,13 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="15"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="N4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="12"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -1155,16 +1161,13 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="15"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="N5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="12"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -1172,16 +1175,13 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="N6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="12"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1189,17 +1189,13 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="N7" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="12"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1207,17 +1203,13 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="N8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="21"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="12"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1225,17 +1217,13 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="N9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="21"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="12"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1243,17 +1231,13 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="N10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="21"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="12"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1261,13 +1245,13 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
+    <row r="12" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="13"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -1275,16 +1259,16 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="17"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+    <row r="13" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="12"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1292,13 +1276,13 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
+    <row r="14" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="12"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1306,13 +1290,13 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+    <row r="15" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="12"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1320,13 +1304,13 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
+    <row r="16" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="12"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1334,13 +1318,13 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+    <row r="17" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="12"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -1348,13 +1332,13 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="15"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+    <row r="18" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -1362,13 +1346,13 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="15"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
+    <row r="19" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -1376,13 +1360,13 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
+    <row r="20" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="12"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1390,13 +1374,13 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="15"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
+    <row r="21" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="12"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -1404,13 +1388,13 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
+    <row r="22" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="12"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1418,16 +1402,16 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="15"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
+    <row r="23" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="51">
         <f>Punkter!$C$4</f>
         <v>3.9</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="11"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1435,13 +1419,13 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
+    <row r="24" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1449,13 +1433,13 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
+    <row r="25" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -1463,13 +1447,13 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="15"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
+    <row r="26" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="12"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -1477,13 +1461,13 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="15"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
+    <row r="27" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="12"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -1491,13 +1475,13 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="15"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
+    <row r="28" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="12"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -1505,13 +1489,13 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="15"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
+    <row r="29" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="12"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -1519,13 +1503,13 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="15"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
+    <row r="30" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="12"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -1533,13 +1517,13 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="15"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
+    <row r="31" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="12"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -1547,13 +1531,13 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="15"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
+    <row r="32" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="13"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -1561,16 +1545,16 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="17"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
+    <row r="33" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51">
         <f>Punkter!$C$5</f>
         <v>7.9</v>
       </c>
-      <c r="B33" s="40"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="12"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -1578,13 +1562,13 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="15"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
+    <row r="34" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="53"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="12"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -1592,13 +1576,13 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="15"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
+    <row r="35" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="12"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -1606,13 +1590,13 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="15"/>
+      <c r="J35" s="12"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
+    <row r="36" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="53"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="12"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -1620,13 +1604,13 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="15"/>
+      <c r="J36" s="12"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
+    <row r="37" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="12"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -1634,13 +1618,13 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="15"/>
+      <c r="J37" s="12"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
+    <row r="38" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -1648,13 +1632,13 @@
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="15"/>
+      <c r="J38" s="12"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
+    <row r="39" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="12"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -1662,13 +1646,13 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="15"/>
+      <c r="J39" s="12"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="42"/>
+    <row r="40" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="53"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -1676,13 +1660,13 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="15"/>
+      <c r="J40" s="12"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="42"/>
+    <row r="41" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="53"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -1690,13 +1674,13 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="15"/>
+      <c r="J41" s="12"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
+    <row r="42" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="53"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="12"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -1704,16 +1688,16 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="15"/>
+      <c r="J42" s="12"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
+    <row r="43" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51">
         <f>Punkter!$C$6</f>
         <v>15.2</v>
       </c>
-      <c r="B43" s="40"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="11"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -1721,13 +1705,13 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="3"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="33"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="42"/>
+    <row r="44" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="12"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -1735,13 +1719,13 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="15"/>
+      <c r="J44" s="12"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
+    <row r="45" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="12"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -1749,13 +1733,13 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="15"/>
+      <c r="J45" s="12"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="42"/>
+    <row r="46" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="12"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -1763,13 +1747,13 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="15"/>
+      <c r="J46" s="12"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
+    <row r="47" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="53"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="12"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -1777,13 +1761,13 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="15"/>
+      <c r="J47" s="12"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
+    <row r="48" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="53"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="12"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -1791,13 +1775,13 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="15"/>
+      <c r="J48" s="12"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
+    <row r="49" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="12"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -1805,13 +1789,13 @@
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="15"/>
+      <c r="J49" s="12"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42"/>
+    <row r="50" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="12"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -1819,13 +1803,13 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="15"/>
+      <c r="J50" s="12"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
+    <row r="51" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="12"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -1833,13 +1817,13 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="15"/>
+      <c r="J51" s="12"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42"/>
+    <row r="52" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="53"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="13"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -1847,16 +1831,16 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="17"/>
+      <c r="J52" s="13"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="39">
+    <row r="53" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="51">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B53" s="40"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="12"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -1864,13 +1848,13 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="15"/>
+      <c r="J53" s="12"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="42"/>
+    <row r="54" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="53"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="12"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -1878,13 +1862,13 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="15"/>
+      <c r="J54" s="12"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
+    <row r="55" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="53"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="12"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -1892,13 +1876,13 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="15"/>
+      <c r="J55" s="12"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="42"/>
+    <row r="56" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="53"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="12"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -1906,13 +1890,13 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="15"/>
+      <c r="J56" s="12"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
+    <row r="57" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="53"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="12"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -1920,13 +1904,13 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="15"/>
+      <c r="J57" s="12"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="42"/>
+    <row r="58" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="53"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="12"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -1934,13 +1918,13 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="15"/>
+      <c r="J58" s="12"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
+    <row r="59" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="53"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="12"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -1948,13 +1932,13 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="15"/>
+      <c r="J59" s="12"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="42"/>
+    <row r="60" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="53"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="12"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -1962,13 +1946,13 @@
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="15"/>
+      <c r="J60" s="12"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
+    <row r="61" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="53"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="12"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -1976,13 +1960,13 @@
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="15"/>
+      <c r="J61" s="12"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="43"/>
-      <c r="B62" s="44"/>
+    <row r="62" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="55"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="13"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
@@ -1990,25 +1974,123 @@
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="7"/>
-      <c r="J62" s="17"/>
+      <c r="J62" s="13"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C66" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C68" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C69" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C70" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C71" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C72" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C73" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="27">
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A33:B42"/>
     <mergeCell ref="A43:B52"/>
     <mergeCell ref="A53:B62"/>
     <mergeCell ref="A3:B12"/>
     <mergeCell ref="A13:B22"/>
     <mergeCell ref="A23:B32"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2020,48 +2102,48 @@
       <selection activeCell="A3" sqref="A3:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34">
+      <c r="C1" s="57">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="34">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="57">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="34">
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="57">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="29">
+      <c r="K1" s="59"/>
+      <c r="L1" s="28">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
       <c r="N1" t="str">
-        <f>Meas1!N3</f>
+        <f>Meas1!C66</f>
         <v>TX</v>
       </c>
       <c r="O1">
-        <f>Meas1!O3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+        <f>Meas1!D66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2106,295 +2188,295 @@
         <v>2</v>
       </c>
       <c r="N2" t="str">
-        <f>Meas1!N4</f>
+        <f>Meas1!C67</f>
         <v>RX</v>
       </c>
       <c r="O2">
-        <f>Meas1!O4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
+        <f>Meas1!D67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="22">
+      <c r="B3" s="62"/>
+      <c r="C3" s="21">
         <f>SUM(Meas1!C$3:'Meas1'!C$12)/10</f>
         <v>0</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <f>SUM(Meas1!D$3:'Meas1'!D$12)/10</f>
         <v>0</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <f>SUM(Meas1!E$3:'Meas1'!E$12)/10</f>
         <v>0</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <f>SUM(Meas1!F$3:'Meas1'!F$12)/10</f>
         <v>0</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <f>SUM(Meas1!G$3:'Meas1'!G$12)/10</f>
         <v>0</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <f>SUM(Meas1!H$3:'Meas1'!H$12)/10</f>
         <v>0</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <f>SUM(Meas1!I$3:'Meas1'!I$12)/10</f>
         <v>0</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <f>SUM(Meas1!J$3:'Meas1'!J$12)/10</f>
         <v>0</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <f>SUM(Meas1!K$3:'Meas1'!K$12)/10</f>
         <v>0</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="29">
         <f>SUM(Meas1!L$3:'Meas1'!L$12)/10</f>
         <v>0</v>
       </c>
       <c r="N3" t="str">
-        <f>Meas1!N5</f>
+        <f>Meas1!C68</f>
         <v>Polar</v>
       </c>
       <c r="O3">
-        <f>Meas1!O5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
+        <f>Meas1!D68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="24">
+      <c r="B4" s="62"/>
+      <c r="C4" s="23">
         <f>SUM(Meas1!C$13:'Meas1'!C$22)/10</f>
         <v>0</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <f>SUM(Meas1!D$13:'Meas1'!D$22)/10</f>
         <v>0</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <f>SUM(Meas1!E$13:'Meas1'!E$22)/10</f>
         <v>0</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <f>SUM(Meas1!F$13:'Meas1'!F$22)/10</f>
         <v>0</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <f>SUM(Meas1!G$13:'Meas1'!G$22)/10</f>
         <v>0</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <f>SUM(Meas1!H$13:'Meas1'!H$22)/10</f>
         <v>0</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <f>SUM(Meas1!I$13:'Meas1'!I$22)/10</f>
         <v>0</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <f>SUM(Meas1!J$13:'Meas1'!J$22)/10</f>
         <v>0</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="26">
         <f>SUM(Meas1!K$13:'Meas1'!K$22)/10</f>
         <v>0</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="30">
         <f>SUM(Meas1!L$13:'Meas1'!L$22)/10</f>
         <v>0</v>
       </c>
       <c r="N4" t="str">
-        <f>Meas1!N6</f>
+        <f>Meas1!C69</f>
         <v>Frekvens</v>
       </c>
       <c r="O4">
-        <f>Meas1!O6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+        <f>Meas1!D69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="61">
         <f>Punkter!$C$4</f>
         <v>3.9</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="24">
+      <c r="B5" s="62"/>
+      <c r="C5" s="23">
         <f>SUM(Meas1!C$23:'Meas1'!C$32)/10</f>
         <v>0</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <f>SUM(Meas1!D$23:'Meas1'!D$32)/10</f>
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <f>SUM(Meas1!E$23:'Meas1'!E$32)/10</f>
         <v>0</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <f>SUM(Meas1!F$23:'Meas1'!F$32)/10</f>
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <f>SUM(Meas1!G$23:'Meas1'!G$32)/10</f>
         <v>0</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <f>SUM(Meas1!H$23:'Meas1'!H$32)/10</f>
         <v>0</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="26">
         <f>SUM(Meas1!I$23:'Meas1'!I$32)/10</f>
         <v>0</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f>SUM(Meas1!J$23:'Meas1'!J$32)/10</f>
         <v>0</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="26">
         <f>SUM(Meas1!K$23:'Meas1'!K$32)/10</f>
         <v>0</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <f>SUM(Meas1!L$23:'Meas1'!L$32)/10</f>
         <v>0</v>
       </c>
       <c r="N5" t="str">
-        <f>Meas1!N7</f>
+        <f>Meas1!C70</f>
         <v>Date</v>
       </c>
       <c r="O5">
-        <f>Meas1!O7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45">
+        <f>Meas1!D70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="61">
         <f>Punkter!$C$5</f>
         <v>7.9</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="24">
+      <c r="B6" s="62"/>
+      <c r="C6" s="23">
         <f>SUM(Meas1!C$33:'Meas1'!C$42)/10</f>
         <v>0</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <f>SUM(Meas1!D$33:'Meas1'!D$42)/10</f>
         <v>0</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <f>SUM(Meas1!E$33:'Meas1'!E$42)/10</f>
         <v>0</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <f>SUM(Meas1!F$33:'Meas1'!F$42)/10</f>
         <v>0</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <f>SUM(Meas1!G$33:'Meas1'!G$42)/10</f>
         <v>0</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <f>SUM(Meas1!H$33:'Meas1'!H$42)/10</f>
         <v>0</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <f>SUM(Meas1!I$33:'Meas1'!I$42)/10</f>
         <v>0</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <f>SUM(Meas1!J$33:'Meas1'!J$42)/10</f>
         <v>0</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="26">
         <f>SUM(Meas1!K$33:'Meas1'!K$42)/10</f>
         <v>0</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <f>SUM(Meas1!L$33:'Meas1'!L$42)/10</f>
         <v>0</v>
       </c>
       <c r="N6" t="str">
-        <f>Meas1!N8</f>
+        <f>Meas1!C71</f>
         <v>Start time</v>
       </c>
       <c r="O6">
-        <f>Meas1!O8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45">
+        <f>Meas1!D71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="61">
         <f>Punkter!$C$6</f>
         <v>15.2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="24">
+      <c r="B7" s="62"/>
+      <c r="C7" s="23">
         <f>SUM(Meas1!C$43:'Meas1'!C$52)/10</f>
         <v>0</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <f>SUM(Meas1!D$43:'Meas1'!D$52)/10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <f>SUM(Meas1!E$43:'Meas1'!E$52)/10</f>
         <v>0</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <f>SUM(Meas1!F$43:'Meas1'!F$52)/10</f>
         <v>0</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <f>SUM(Meas1!G$43:'Meas1'!G$52)/10</f>
         <v>0</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <f>SUM(Meas1!H$43:'Meas1'!H$52)/10</f>
         <v>0</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <f>SUM(Meas1!I$43:'Meas1'!I$52)/10</f>
         <v>0</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <f>SUM(Meas1!J$43:'Meas1'!J$52)/10</f>
         <v>0</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <f>SUM(Meas1!K$43:'Meas1'!K$52)/10</f>
         <v>0</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="30">
         <f>SUM(Meas1!L$43:'Meas1'!L$52)/10</f>
         <v>0</v>
       </c>
       <c r="N7" t="str">
-        <f>Meas1!N9</f>
+        <f>Meas1!C72</f>
         <v>End time</v>
       </c>
       <c r="O7">
-        <f>Meas1!O9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45">
+        <f>Meas1!D72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="61">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="20">
         <f>SUM(Meas1!C$53:'Meas1'!C$62)/10</f>
         <v>0</v>
@@ -2407,7 +2489,7 @@
         <f>SUM(Meas1!E$53:'Meas1'!E$62)/10</f>
         <v>0</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <f>SUM(Meas1!F$53:'Meas1'!F$62)/10</f>
         <v>0</v>
       </c>
@@ -2419,7 +2501,7 @@
         <f>SUM(Meas1!H$53:'Meas1'!H$62)/10</f>
         <v>0</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <f>SUM(Meas1!I$53:'Meas1'!I$62)/10</f>
         <v>0</v>
       </c>
@@ -2427,35 +2509,35 @@
         <f>SUM(Meas1!J$53:'Meas1'!J$62)/10</f>
         <v>0</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <f>SUM(Meas1!K$53:'Meas1'!K$62)/10</f>
         <v>0</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="31">
         <f>SUM(Meas1!L$53:'Meas1'!L$62)/10</f>
         <v>0</v>
       </c>
       <c r="N8" t="str">
-        <f>Meas1!N10</f>
+        <f>Meas1!C73</f>
         <v>Place</v>
       </c>
       <c r="O8">
-        <f>Meas1!O10</f>
+        <f>Meas1!D73</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2466,41 +2548,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34">
+      <c r="C1" s="57">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="34">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="57">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="34">
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="57">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="29">
+      <c r="K1" s="59"/>
+      <c r="L1" s="28">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
@@ -2508,12 +2590,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="34">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
@@ -2529,7 +2611,7 @@
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="34">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
@@ -2560,50 +2642,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="49">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+      <c r="B3" s="63"/>
+      <c r="C3" s="35">
+        <f t="shared" ref="C3:L8" si="0">$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
         <v>-37.045997020280801</v>
       </c>
-      <c r="D3" s="50">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+      <c r="D3" s="36">
+        <f t="shared" si="0"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="E3" s="50">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+      <c r="E3" s="36">
+        <f t="shared" si="0"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="F3" s="50">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+      <c r="F3" s="36">
+        <f t="shared" si="0"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="G3" s="49">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+      <c r="G3" s="35">
+        <f t="shared" si="0"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="H3" s="50">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+      <c r="H3" s="36">
+        <f t="shared" si="0"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="I3" s="51">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+      <c r="I3" s="37">
+        <f t="shared" si="0"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="J3" s="50">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+      <c r="J3" s="36">
+        <f t="shared" si="0"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="K3" s="51">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+      <c r="K3" s="37">
+        <f t="shared" si="0"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="L3" s="51">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A3))</f>
+      <c r="L3" s="37">
+        <f t="shared" si="0"/>
         <v>-37.045997020280801</v>
       </c>
       <c r="N3" t="s">
@@ -2613,50 +2695,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="52">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+      <c r="B4" s="63"/>
+      <c r="C4" s="38">
+        <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="D4" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+      <c r="D4" s="39">
+        <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="E4" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+      <c r="E4" s="39">
+        <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="F4" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+      <c r="F4" s="39">
+        <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="G4" s="52">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+      <c r="G4" s="38">
+        <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="H4" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+      <c r="H4" s="39">
+        <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="I4" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+      <c r="I4" s="40">
+        <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="J4" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+      <c r="J4" s="39">
+        <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="K4" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+      <c r="K4" s="40">
+        <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="L4" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A4))</f>
+      <c r="L4" s="40">
+        <f t="shared" si="0"/>
         <v>-43.066596933560426</v>
       </c>
       <c r="N4" t="s">
@@ -2666,228 +2748,228 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="61">
         <f>Punkter!$C$4</f>
         <v>3.9</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="55">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+      <c r="B5" s="63"/>
+      <c r="C5" s="41">
+        <f t="shared" si="0"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="D5" s="56">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+      <c r="D5" s="42">
+        <f t="shared" si="0"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="E5" s="56">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+      <c r="E5" s="42">
+        <f t="shared" si="0"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="F5" s="56">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+      <c r="F5" s="42">
+        <f t="shared" si="0"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="G5" s="55">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+      <c r="G5" s="41">
+        <f t="shared" si="0"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="H5" s="56">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+      <c r="H5" s="42">
+        <f t="shared" si="0"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="I5" s="57">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+      <c r="I5" s="43">
+        <f t="shared" si="0"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="J5" s="56">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+      <c r="J5" s="42">
+        <f t="shared" si="0"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="K5" s="57">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+      <c r="K5" s="43">
+        <f t="shared" si="0"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="L5" s="57">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A5))</f>
+      <c r="L5" s="43">
+        <f t="shared" si="0"/>
         <v>-48.867289160810785</v>
       </c>
       <c r="N5" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="50">
         <f>(3*10^8)/(2.4*10^9)</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="61">
         <f>Punkter!$C$5</f>
         <v>7.9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="52">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+      <c r="B6" s="63"/>
+      <c r="C6" s="38">
+        <f t="shared" si="0"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="D6" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+      <c r="D6" s="39">
+        <f t="shared" si="0"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="E6" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+      <c r="E6" s="39">
+        <f t="shared" si="0"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="F6" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+      <c r="F6" s="39">
+        <f t="shared" si="0"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="G6" s="52">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+      <c r="G6" s="38">
+        <f t="shared" si="0"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="H6" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+      <c r="H6" s="39">
+        <f t="shared" si="0"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="I6" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+      <c r="I6" s="40">
+        <f t="shared" si="0"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="J6" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+      <c r="J6" s="39">
+        <f t="shared" si="0"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="K6" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+      <c r="K6" s="40">
+        <f t="shared" si="0"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="L6" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A6))</f>
+      <c r="L6" s="40">
+        <f t="shared" si="0"/>
         <v>-54.99853884608963</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="61">
         <f>Punkter!$C$6</f>
         <v>15.2</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="58">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+      <c r="B7" s="63"/>
+      <c r="C7" s="44">
+        <f t="shared" si="0"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="D7" s="59">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+      <c r="D7" s="45">
+        <f t="shared" si="0"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="E7" s="59">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+      <c r="E7" s="45">
+        <f t="shared" si="0"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="F7" s="59">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+      <c r="F7" s="45">
+        <f t="shared" si="0"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="G7" s="58">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+      <c r="G7" s="44">
+        <f t="shared" si="0"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="H7" s="59">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+      <c r="H7" s="45">
+        <f t="shared" si="0"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="I7" s="60">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+      <c r="I7" s="46">
+        <f t="shared" si="0"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="J7" s="59">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+      <c r="J7" s="45">
+        <f t="shared" si="0"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="K7" s="60">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+      <c r="K7" s="46">
+        <f t="shared" si="0"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="L7" s="60">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A7))</f>
+      <c r="L7" s="46">
+        <f t="shared" si="0"/>
         <v>-60.682868779176253</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="61">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="61">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+      <c r="B8" s="63"/>
+      <c r="C8" s="47">
+        <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="D8" s="62">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+      <c r="D8" s="48">
+        <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="E8" s="62">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+      <c r="E8" s="48">
+        <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="F8" s="62">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+      <c r="F8" s="48">
+        <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="G8" s="61">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+      <c r="G8" s="47">
+        <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="H8" s="62">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+      <c r="H8" s="48">
+        <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="I8" s="63">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+      <c r="I8" s="49">
+        <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="J8" s="62">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+      <c r="J8" s="48">
+        <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="K8" s="63">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+      <c r="K8" s="49">
+        <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="L8" s="63">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A8))</f>
+      <c r="L8" s="49">
+        <f t="shared" si="0"/>
         <v>-66.588422114674046</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="57">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="34">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="57">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="34">
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="57">
         <f>Punkter!$A$4</f>
         <v>0.34</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="29">
+      <c r="K11" s="59"/>
+      <c r="L11" s="28">
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
@@ -2895,12 +2977,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="60"/>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="34">
         <f>Punkter!$A$2</f>
         <v>0.01</v>
       </c>
@@ -2916,7 +2998,7 @@
         <f>Punkter!$A$5</f>
         <v>2</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="34">
         <f>Punkter!$A$3</f>
         <v>0.08</v>
       </c>
@@ -2947,50 +3029,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="61">
         <f>Punkter!$C$2</f>
         <v>1</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="49">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+      <c r="B13" s="63"/>
+      <c r="C13" s="35">
+        <f t="shared" ref="C13:L18" si="1">$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
         <v>-37.045997020280801</v>
       </c>
-      <c r="D13" s="50">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+      <c r="D13" s="36">
+        <f t="shared" si="1"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="E13" s="50">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+      <c r="E13" s="36">
+        <f t="shared" si="1"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="F13" s="50">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+      <c r="F13" s="36">
+        <f t="shared" si="1"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="G13" s="49">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+      <c r="G13" s="35">
+        <f t="shared" si="1"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="H13" s="50">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+      <c r="H13" s="36">
+        <f t="shared" si="1"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="I13" s="51">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+      <c r="I13" s="37">
+        <f t="shared" si="1"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="J13" s="50">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+      <c r="J13" s="36">
+        <f t="shared" si="1"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="K13" s="51">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+      <c r="K13" s="37">
+        <f t="shared" si="1"/>
         <v>-37.045997020280801</v>
       </c>
-      <c r="L13" s="51">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A13))</f>
+      <c r="L13" s="37">
+        <f t="shared" si="1"/>
         <v>-37.045997020280801</v>
       </c>
       <c r="N13" t="s">
@@ -3000,50 +3082,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61">
         <f>Punkter!$C$3</f>
         <v>2</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="52">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+      <c r="B14" s="63"/>
+      <c r="C14" s="38">
+        <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="D14" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+      <c r="D14" s="39">
+        <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="E14" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+      <c r="E14" s="39">
+        <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="F14" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+      <c r="F14" s="39">
+        <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="G14" s="52">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+      <c r="G14" s="38">
+        <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="H14" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+      <c r="H14" s="39">
+        <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="I14" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+      <c r="I14" s="40">
+        <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="J14" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+      <c r="J14" s="39">
+        <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="K14" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+      <c r="K14" s="40">
+        <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
       </c>
-      <c r="L14" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A14))</f>
+      <c r="L14" s="40">
+        <f t="shared" si="1"/>
         <v>-43.066596933560426</v>
       </c>
       <c r="N14" t="s">
@@ -3053,203 +3135,214 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61">
         <f>Punkter!$C$4</f>
         <v>3.9</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="55">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+      <c r="B15" s="63"/>
+      <c r="C15" s="41">
+        <f t="shared" si="1"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="D15" s="56">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+      <c r="D15" s="42">
+        <f t="shared" si="1"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="E15" s="56">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+      <c r="E15" s="42">
+        <f t="shared" si="1"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="F15" s="56">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+      <c r="F15" s="42">
+        <f t="shared" si="1"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="G15" s="55">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+      <c r="G15" s="41">
+        <f t="shared" si="1"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="H15" s="56">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+      <c r="H15" s="42">
+        <f t="shared" si="1"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="I15" s="57">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+      <c r="I15" s="43">
+        <f t="shared" si="1"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="J15" s="56">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+      <c r="J15" s="42">
+        <f t="shared" si="1"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="K15" s="57">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+      <c r="K15" s="43">
+        <f t="shared" si="1"/>
         <v>-48.867289160810785</v>
       </c>
-      <c r="L15" s="57">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A15))</f>
+      <c r="L15" s="43">
+        <f t="shared" si="1"/>
         <v>-48.867289160810785</v>
       </c>
       <c r="N15" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="64">
+      <c r="O15" s="50">
         <f>(3*10^8)/(2.4*10^9)</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="61">
         <f>Punkter!$C$5</f>
         <v>7.9</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="52">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+      <c r="B16" s="63"/>
+      <c r="C16" s="38">
+        <f t="shared" si="1"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="D16" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+      <c r="D16" s="39">
+        <f t="shared" si="1"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="E16" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+      <c r="E16" s="39">
+        <f t="shared" si="1"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="F16" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+      <c r="F16" s="39">
+        <f t="shared" si="1"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="G16" s="52">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+      <c r="G16" s="38">
+        <f t="shared" si="1"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="H16" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+      <c r="H16" s="39">
+        <f t="shared" si="1"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="I16" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+      <c r="I16" s="40">
+        <f t="shared" si="1"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="J16" s="53">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+      <c r="J16" s="39">
+        <f t="shared" si="1"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="K16" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+      <c r="K16" s="40">
+        <f t="shared" si="1"/>
         <v>-54.99853884608963</v>
       </c>
-      <c r="L16" s="54">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A16))</f>
+      <c r="L16" s="40">
+        <f t="shared" si="1"/>
         <v>-54.99853884608963</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45">
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="61">
         <f>Punkter!$C$6</f>
         <v>15.2</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="58">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+      <c r="B17" s="63"/>
+      <c r="C17" s="44">
+        <f t="shared" si="1"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="D17" s="59">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+      <c r="D17" s="45">
+        <f t="shared" si="1"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="E17" s="59">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+      <c r="E17" s="45">
+        <f t="shared" si="1"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="F17" s="59">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+      <c r="F17" s="45">
+        <f t="shared" si="1"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="G17" s="58">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+      <c r="G17" s="44">
+        <f t="shared" si="1"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="H17" s="59">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+      <c r="H17" s="45">
+        <f t="shared" si="1"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="I17" s="60">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+      <c r="I17" s="46">
+        <f t="shared" si="1"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="J17" s="59">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+      <c r="J17" s="45">
+        <f t="shared" si="1"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="K17" s="60">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+      <c r="K17" s="46">
+        <f t="shared" si="1"/>
         <v>-60.682868779176253</v>
       </c>
-      <c r="L17" s="60">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A17))</f>
+      <c r="L17" s="46">
+        <f t="shared" si="1"/>
         <v>-60.682868779176253</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="61">
         <f>Punkter!$C$7</f>
         <v>30</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="61">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+      <c r="B18" s="63"/>
+      <c r="C18" s="47">
+        <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="D18" s="62">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+      <c r="D18" s="48">
+        <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="E18" s="62">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+      <c r="E18" s="48">
+        <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="F18" s="62">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+      <c r="F18" s="48">
+        <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="G18" s="61">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+      <c r="G18" s="47">
+        <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="H18" s="62">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+      <c r="H18" s="48">
+        <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="I18" s="63">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+      <c r="I18" s="49">
+        <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="J18" s="62">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+      <c r="J18" s="48">
+        <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="K18" s="63">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+      <c r="K18" s="49">
+        <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
       </c>
-      <c r="L18" s="63">
-        <f>$O$2+$O$3+$O$4+20*LOG10($O$5/(4*PI()*$A18))</f>
+      <c r="L18" s="49">
+        <f t="shared" si="1"/>
         <v>-66.588422114674046</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="G11:I11"/>
@@ -3258,18 +3351,7 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
